--- a/recursos/CALCULO.xlsx
+++ b/recursos/CALCULO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>fuego</t>
   </si>
@@ -43,35 +43,75 @@
     <t>def</t>
   </si>
   <si>
+    <t>TIERA&gt;FUEGO</t>
+  </si>
+  <si>
     <t>vida</t>
   </si>
   <si>
-    <t>Carta campo</t>
-  </si>
-  <si>
-    <t>buff</t>
-  </si>
-  <si>
-    <t>5 fuego</t>
-  </si>
-  <si>
-    <t>debuff</t>
-  </si>
-  <si>
-    <t>-3tierra</t>
+    <t>FUEGO=FUEGO</t>
+  </si>
+  <si>
+    <t>FUEGO+Carta campo&gt;TIERRA</t>
+  </si>
+  <si>
+    <t>Tierra+Carta campo&gt;FUEGO</t>
+  </si>
+  <si>
+    <t>Carta campo VOLCAN</t>
+  </si>
+  <si>
+    <t>Carta</t>
+  </si>
+  <si>
+    <t>VALKY</t>
+  </si>
+  <si>
+    <t>ATK Fuego</t>
+  </si>
+  <si>
+    <t>campo</t>
+  </si>
+  <si>
+    <t>FUEGO</t>
+  </si>
+  <si>
+    <t>DEF Tierra</t>
+  </si>
+  <si>
+    <t>OCEANO</t>
+  </si>
+  <si>
+    <t>COCODRILO</t>
+  </si>
+  <si>
+    <t>VOLCAN</t>
+  </si>
+  <si>
+    <t>TIERRA</t>
+  </si>
+  <si>
+    <t>Carta campo OCEANO</t>
+  </si>
+  <si>
+    <t>ATK Agua</t>
+  </si>
+  <si>
+    <t>ATK fuego</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,54 +126,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -156,10 +188,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,6 +218,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -194,43 +271,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,13 +304,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF8382"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,179 +496,190 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,94 +706,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -574,131 +732,131 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -708,13 +866,169 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -770,6 +1084,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00BF8382"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1036,169 +1355,333 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:M22"/>
+  <dimension ref="C1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="10.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="9.57142857142857" customWidth="1"/>
     <col min="6" max="6" width="2.71428571428571" customWidth="1"/>
     <col min="8" max="8" width="2.71428571428571" customWidth="1"/>
     <col min="10" max="10" width="2.71428571428571" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="9.42857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:13">
-      <c r="E2" s="1" t="s">
+    <row r="1" spans="5:13">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:4">
-      <c r="C3" t="s">
+    <row r="2" spans="3:4">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="3:13">
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="11">
+        <f>D3/0.8-D9</f>
+        <v>20</v>
+      </c>
+    </row>
     <row r="4" spans="3:13">
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" s="11">
+        <f>D8/1.25-D4</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13">
+      <c r="C5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="8">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="12">
+        <f>D3/1-D4</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="D8" s="6">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4">
-        <f>D4/0.8-D11</f>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="8">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M10" s="13">
+        <f>(D3+D18+0)/0.8-(D9+D19)</f>
+        <v>28.25</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" s="11">
+        <f>(D8/1.25-D4)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:21">
+      <c r="C13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="3:4">
-      <c r="C5" t="s">
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="34"/>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D14" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:4">
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6">
+      <c r="O14" s="16"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="38"/>
+    </row>
+    <row r="15" spans="3:21">
+      <c r="C15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="3:4">
-      <c r="C9" t="s">
+      <c r="O15" s="18"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="38"/>
+    </row>
+    <row r="16" spans="15:21">
+      <c r="O16" s="20"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="38"/>
+    </row>
+    <row r="17" spans="3:21">
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="O17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" s="37"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21">
+      <c r="C18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="6">
         <v>5</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4">
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10">
+      <c r="O18" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="S18" s="41"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21">
+      <c r="C19" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="3:4">
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
+      <c r="D19" s="8">
+        <v>-2</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="S19" s="50"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="15:21">
+      <c r="O20" s="20"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="53"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="38"/>
+    </row>
+    <row r="21" spans="3:21">
+      <c r="C21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="38"/>
+    </row>
+    <row r="22" spans="3:21">
+      <c r="C22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="3:4">
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4">
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="O22" s="20"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="38"/>
+    </row>
+    <row r="23" spans="3:21">
+      <c r="C23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="8">
+        <v>-3</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="28"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="38"/>
+    </row>
+    <row r="24" spans="15:21">
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
